--- a/data/trans_orig/Q04B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q04B-Estudios-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.969101859846355</v>
+        <v>2.973996911994289</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.881413758319704</v>
+        <v>2.876065378696708</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.101307242567089</v>
+        <v>3.099573091127565</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.024509562823901</v>
+        <v>3.029718425403108</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.959237583627034</v>
+        <v>2.963518796002339</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.973405950529309</v>
+        <v>2.971117884664409</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.152245100564487</v>
+        <v>3.148841445492852</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.165482033696923</v>
+        <v>3.162611456147876</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.979025759429368</v>
+        <v>2.978887899509224</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2.945725980460663</v>
+        <v>2.941152148973441</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3.148778364658931</v>
+        <v>3.148400342596144</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>3.123760121637634</v>
+        <v>3.11892975970131</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.062278027155785</v>
+        <v>3.062872576550509</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.979150695837282</v>
+        <v>2.976565466177771</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.24129195713836</v>
+        <v>3.236482072335193</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.144442754350817</v>
+        <v>3.151253404743771</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.033303123124849</v>
+        <v>3.033620644108469</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.056375946571416</v>
+        <v>3.057491226453427</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.278551328327123</v>
+        <v>3.27268478685745</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.244206260473551</v>
+        <v>3.239365809156644</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.037696059305062</v>
+        <v>3.036590202028105</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3.010921808936614</v>
+        <v>3.009378785216741</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3.240681768447644</v>
+        <v>3.238454325873172</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>3.188909483524651</v>
+        <v>3.189447689401733</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.059507283818568</v>
+        <v>3.058583933500985</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.038486121442371</v>
+        <v>3.037516811595587</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.110461617119496</v>
+        <v>3.109228627086694</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.146321998847444</v>
+        <v>3.145604199159246</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.094626766444559</v>
+        <v>3.097472707096876</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.034487068780223</v>
+        <v>3.039101610084163</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>3.131902738179061</v>
+        <v>3.12445783344454</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>3.15653524178871</v>
+        <v>3.156984710527339</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>3.086553796431052</v>
+        <v>3.083896172702326</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3.046177216677056</v>
+        <v>3.04574968059337</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3.130299245370041</v>
+        <v>3.131214556348113</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>3.158930558718459</v>
+        <v>3.160699326249435</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.132852489180318</v>
+        <v>3.133966362634232</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.108853059425417</v>
+        <v>3.102163587571502</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.192399269938824</v>
+        <v>3.192778469699276</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.218962073652906</v>
+        <v>3.21773720686285</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.167581161782463</v>
+        <v>3.167770565952439</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.103169894025627</v>
+        <v>3.105779713893721</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>3.214933911101586</v>
+        <v>3.206914530097504</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>3.208953298935768</v>
+        <v>3.210785816492836</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>3.13647116773251</v>
+        <v>3.136138302030308</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3.092712154067607</v>
+        <v>3.095508336216712</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3.18759375170661</v>
+        <v>3.190512703161853</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>3.205979291256059</v>
+        <v>3.205350246546188</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>3.16574471236768</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.326322613337588</v>
+        <v>3.326322613337589</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>3.179244420580614</v>
@@ -965,7 +965,7 @@
         <v>3.151318350938439</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>3.251667832775448</v>
+        <v>3.251667832775449</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.122649284796411</v>
+        <v>3.128866635867568</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.133228407422843</v>
+        <v>3.129092154955628</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.090517417565463</v>
+        <v>3.089871172932174</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.255497734950839</v>
+        <v>3.257526124143101</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.099613853770608</v>
+        <v>3.101740168749227</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.039623096496788</v>
+        <v>3.043761366516623</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3.067846054153182</v>
+        <v>3.064015582573754</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>3.125373373260506</v>
+        <v>3.131726594761252</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.132893376458082</v>
+        <v>3.140634770294358</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3.102329189385612</v>
+        <v>3.109485307585837</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3.099380102018047</v>
+        <v>3.099286231921928</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>3.209863288041863</v>
+        <v>3.210163276554386</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.264174437168205</v>
+        <v>3.259876260877766</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.297272643724691</v>
+        <v>3.292014780136807</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.254054920468465</v>
+        <v>3.251388032720748</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.398380322479134</v>
+        <v>3.39445314223792</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.255262769053518</v>
+        <v>3.26093762645564</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.19279171791298</v>
+        <v>3.193361735962886</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.2151514306391</v>
+        <v>3.206925304851734</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.231330360486905</v>
+        <v>3.227125868515533</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.244959197370359</v>
+        <v>3.244553190608757</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3.21628081564078</v>
+        <v>3.216951884969751</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>3.20754598961534</v>
+        <v>3.214437165296841</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>3.288973536568125</v>
+        <v>3.300627788630499</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>3.17567871956224</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>3.186768221986162</v>
+        <v>3.186768221986163</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>3.087430750419456</v>
@@ -1101,7 +1101,7 @@
         <v>3.165889942789062</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>3.190948153785628</v>
+        <v>3.190948153785627</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.063022082265296</v>
+        <v>3.065614088941859</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.02232111521913</v>
+        <v>3.022773302213742</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.125909010259302</v>
+        <v>3.122558157329058</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.168356372472937</v>
+        <v>3.168323851070826</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.061623565555469</v>
+        <v>3.062048595341742</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.026728798793017</v>
+        <v>3.031121927755355</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>3.145581365674572</v>
+        <v>3.143666765739955</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>3.165814720702241</v>
+        <v>3.166946409665775</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>3.069282273188272</v>
+        <v>3.070088953487561</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3.033950609499912</v>
+        <v>3.034731890945167</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3.142920194789387</v>
+        <v>3.143870081521874</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>3.174066078740791</v>
+        <v>3.175038073541235</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.115856355727608</v>
+        <v>3.118086214821792</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.075677751767877</v>
+        <v>3.075320882054461</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.187418379657362</v>
+        <v>3.189606105275029</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.225020157324182</v>
+        <v>3.226278506212322</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.111848746747726</v>
+        <v>3.111912367800636</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.083005985826802</v>
+        <v>3.080844695486115</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>3.203928674626303</v>
+        <v>3.20526715752605</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>3.208424568745372</v>
+        <v>3.210096851387316</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>3.104426624204873</v>
+        <v>3.1058014523283</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3.071112134296652</v>
+        <v>3.071717244911108</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3.190632336090711</v>
+        <v>3.187929705545682</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>3.208001502400575</v>
+        <v>3.209523294801838</v>
       </c>
     </row>
     <row r="16">
